--- a/data/data_to_use/time50engyVm.xlsx
+++ b/data/data_to_use/time50engyVm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoît\Desktop\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdesbois/pg/chrisPg/centriG/data/data_to_use/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649C6DC3-3930-4462-8C56-5E207E3AF2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E557B6A-C366-764C-B58B-CE370E0E711B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="1395" windowWidth="12450" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12820" yWindow="1400" windowWidth="12460" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,54 +141,6 @@
     <t>1649F_CXG6</t>
   </si>
   <si>
-    <t>vmscpIsoStcDlat50</t>
-  </si>
-  <si>
-    <t>vmscfIsoStcDlat50</t>
-  </si>
-  <si>
-    <t>vmscpCrossStcDlat50</t>
-  </si>
-  <si>
-    <t>vmscpIsoStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmscfIsoStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmscpCrossStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmfcpIsoStcDlat50</t>
-  </si>
-  <si>
-    <t>vmfcpIsoStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmfcfIsoStcDlat50</t>
-  </si>
-  <si>
-    <t>vmfcfIsoStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmfcpCrossStcDlat50</t>
-  </si>
-  <si>
-    <t>vmfcpCrossStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmsrndIsoStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmfrndIsoStcDlat50Indisig</t>
-  </si>
-  <si>
-    <t>vmsrndIsoStcDlat50</t>
-  </si>
-  <si>
-    <t>vmfrndIsoStcDlat50</t>
-  </si>
-  <si>
     <t>2.79999995231628E+0000</t>
   </si>
   <si>
@@ -555,54 +507,6 @@
     <t>8.50000000000000E+0000</t>
   </si>
   <si>
-    <t>vmscpIsoStcDenergy</t>
-  </si>
-  <si>
-    <t>vmscpIsoStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmfcpIsoStcDenergy</t>
-  </si>
-  <si>
-    <t>vmfcpIsoStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmscfIsoStcDenergy</t>
-  </si>
-  <si>
-    <t>vmscfIsoStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmfcfIsoStcDenergy</t>
-  </si>
-  <si>
-    <t>vmfcfIsoStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmscpCrossStcDenergy</t>
-  </si>
-  <si>
-    <t>vmscpCrossStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmfcpCrossStcDenergy</t>
-  </si>
-  <si>
-    <t>vmfcpCrossStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmsrndIsoStcDenergy</t>
-  </si>
-  <si>
-    <t>vmsrndIsoStcDenergyIndisig</t>
-  </si>
-  <si>
-    <t>vmfrndIsoStcDenergy</t>
-  </si>
-  <si>
-    <t>vmfrndIsoStcDenergyIndisig</t>
-  </si>
-  <si>
     <t>6.85702383518219E-0001</t>
   </si>
   <si>
@@ -1489,13 +1393,109 @@
   </si>
   <si>
     <t>1.75329834222794E-0001</t>
+  </si>
+  <si>
+    <t>vmscpIsoStcEngy</t>
+  </si>
+  <si>
+    <t>vmscpIsoStcEngySig</t>
+  </si>
+  <si>
+    <t>vmfcpIsoStcEngy</t>
+  </si>
+  <si>
+    <t>vmfcpIsoStcEngySig</t>
+  </si>
+  <si>
+    <t>vmscfIsoStcEngy</t>
+  </si>
+  <si>
+    <t>vmscfIsoStcEngySig</t>
+  </si>
+  <si>
+    <t>vmfcfIsoStcEngy</t>
+  </si>
+  <si>
+    <t>vmfcfIsoStcEngySig</t>
+  </si>
+  <si>
+    <t>vmscpCrossStcEngy</t>
+  </si>
+  <si>
+    <t>vmscpCrossStcEngySig</t>
+  </si>
+  <si>
+    <t>vmfcpCrossStcEngy</t>
+  </si>
+  <si>
+    <t>vmfcpCrossStcEngySig</t>
+  </si>
+  <si>
+    <t>vmsrndIsoStcEngy</t>
+  </si>
+  <si>
+    <t>vmsrndIsoStcEngySig</t>
+  </si>
+  <si>
+    <t>vmfrndIsoStcEngy</t>
+  </si>
+  <si>
+    <t>vmfrndIsoStcEngySig</t>
+  </si>
+  <si>
+    <t>vmscpIsoStcLat50</t>
+  </si>
+  <si>
+    <t>vmscpIsoStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmfcpIsoStcLat50</t>
+  </si>
+  <si>
+    <t>vmfcpIsoStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmscfIsoStcLat50</t>
+  </si>
+  <si>
+    <t>vmscfIsoStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmfcfIsoStcLat50</t>
+  </si>
+  <si>
+    <t>vmfcfIsoStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmscpCrossStcLat50</t>
+  </si>
+  <si>
+    <t>vmscpCrossStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmfcpCrossStcLat50</t>
+  </si>
+  <si>
+    <t>vmfcpCrossStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmsrndIsoStcLat50</t>
+  </si>
+  <si>
+    <t>vmsrndIsoStcLat50Sig</t>
+  </si>
+  <si>
+    <t>vmfrndIsoStcLat50</t>
+  </si>
+  <si>
+    <t>vmfrndIsoStcLat50Sig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1854,3860 +1854,3860 @@
       <selection pane="topRight" activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="17" width="29.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" customWidth="1"/>
+    <col min="13" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.5" customWidth="1"/>
     <col min="19" max="25" width="29" customWidth="1"/>
     <col min="26" max="26" width="23" customWidth="1"/>
-    <col min="27" max="27" width="32.85546875" customWidth="1"/>
-    <col min="28" max="28" width="26.140625" customWidth="1"/>
-    <col min="29" max="33" width="29.42578125" customWidth="1"/>
-    <col min="34" max="34" width="27.85546875" customWidth="1"/>
-    <col min="35" max="35" width="31.140625" customWidth="1"/>
+    <col min="27" max="27" width="32.83203125" customWidth="1"/>
+    <col min="28" max="28" width="26.1640625" customWidth="1"/>
+    <col min="29" max="33" width="29.5" customWidth="1"/>
+    <col min="34" max="34" width="27.83203125" customWidth="1"/>
+    <col min="35" max="35" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P1" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S1" t="s">
+        <v>481</v>
+      </c>
+      <c r="T1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U1" t="s">
+        <v>465</v>
+      </c>
+      <c r="V1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W1" t="s">
+        <v>483</v>
+      </c>
+      <c r="X1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>191</v>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>308</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>340</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>57</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>269</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>73</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="AE6">
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
       <c r="Z10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="AC12">
         <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="AG12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AE13">
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
+        <v>135</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>320</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
         <v>151</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>352</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>110</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>167</v>
-      </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AA17">
         <v>1</v>
       </c>
       <c r="AB17" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="AC18">
         <v>1</v>
       </c>
       <c r="AD18" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="Y19">
         <v>1</v>
       </c>
       <c r="Z19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="AE21">
         <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>256</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>128</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>288</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>144</v>
-      </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="AC24">
         <v>1</v>
       </c>
       <c r="AD24" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="AG24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>257</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>107</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>252</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>289</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>123</v>
-      </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
+        <v>94</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>333</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
         <v>110</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
-        <v>365</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
-        <v>126</v>
-      </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="Y29">
         <v>1</v>
       </c>
       <c r="Z29" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="AC30">
         <v>1</v>
       </c>
       <c r="AD30" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
       <c r="AD31" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="AG31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
         <v>91</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32" t="s">
-        <v>107</v>
-      </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="AG32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>131</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>298</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>147</v>
-      </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AA34">
         <v>1</v>
       </c>
       <c r="AB34" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
       <c r="AD34" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="AG34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="AC35">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="AG35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="AC36">
         <v>0</v>
       </c>
       <c r="AD36" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="AG36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="Q37">
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="AC37">
         <v>1</v>
       </c>
       <c r="AD37" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="AG37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
       <c r="AB38" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="AG38">
         <v>0</v>
